--- a/metal-lda_dataset_analysis.xlsx
+++ b/metal-lda_dataset_analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1459">
   <si>
     <t xml:space="preserve">artist</t>
   </si>
@@ -4397,15 +4397,6 @@
   </si>
   <si>
     <t xml:space="preserve">3297eb2a-f24e-4a71-969c-48acb7598b9c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenturbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can‘t Accept This</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(no MBID, https://archive.org/details/Zenturbo-10_2000/Zenturbo-2000-03_Cant_Accept_This.wav)</t>
   </si>
 </sst>
 </file>
@@ -4545,12 +4536,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ505"/>
+  <dimension ref="A1:AMJ504"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C505" activeCellId="0" sqref="C505"/>
+      <selection pane="bottomLeft" activeCell="B506" activeCellId="0" sqref="B506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4558,7 +4549,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="4" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="4" style="0" width="8.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -12118,21 +12109,7 @@
       <c r="AMI504" s="0"/>
       <c r="AMJ504" s="0"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C505" s="0" t="s">
-        <v>1461</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C505" r:id="rId1" display="https://archive.org/details/Zenturbo-10_2000/Zenturbo-2000-03_Cant_Accept_This.wav"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
